--- a/assignment2/results/fitness.xlsx
+++ b/assignment2/results/fitness.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="alphaMiner" sheetId="1" r:id="rId1"/>
     <sheet name="ilpMiner" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="passageMiner" sheetId="3" r:id="rId3"/>
+    <sheet name="inductiveMiner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="55">
   <si>
     <t>0.0</t>
   </si>
@@ -524,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1772,12 +1773,1215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assignment2/results/fitness.xlsx
+++ b/assignment2/results/fitness.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="alphaMiner" sheetId="1" r:id="rId1"/>
-    <sheet name="ilpMiner" sheetId="2" r:id="rId2"/>
-    <sheet name="passageMiner" sheetId="3" r:id="rId3"/>
-    <sheet name="inductiveMiner" sheetId="4" r:id="rId4"/>
+    <sheet name="ilpMiner-emptyAfterCompletion" sheetId="2" r:id="rId2"/>
+    <sheet name="ilpMiner-petrinetilpmodel" sheetId="5" r:id="rId3"/>
+    <sheet name="freechoiceilp" sheetId="6" r:id="rId4"/>
+    <sheet name="passageMiner" sheetId="3" r:id="rId5"/>
+    <sheet name="passageMiner-exhaustive" sheetId="7" r:id="rId6"/>
+    <sheet name="inductiveMiner" sheetId="4" r:id="rId7"/>
+    <sheet name="inductive-ifrequent" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="125">
   <si>
     <t>0.0</t>
   </si>
@@ -182,6 +186,216 @@
   </si>
   <si>
     <t>0.9226421052631582</t>
+  </si>
+  <si>
+    <t>0.9911090909090909</t>
+  </si>
+  <si>
+    <t>0.9840969696969696</t>
+  </si>
+  <si>
+    <t>0.9776949494949488</t>
+  </si>
+  <si>
+    <t>0.971420202020202</t>
+  </si>
+  <si>
+    <t>0.962444444444444</t>
+  </si>
+  <si>
+    <t>0.9561696969696972</t>
+  </si>
+  <si>
+    <t>0.9469272727272724</t>
+  </si>
+  <si>
+    <t>0.9368646464646466</t>
+  </si>
+  <si>
+    <t>0.9292747474747468</t>
+  </si>
+  <si>
+    <t>0.9870434782608694</t>
+  </si>
+  <si>
+    <t>0.9633333333333329</t>
+  </si>
+  <si>
+    <t>0.9617391304347824</t>
+  </si>
+  <si>
+    <t>0.98704347826087</t>
+  </si>
+  <si>
+    <t>0.9870434782608695</t>
+  </si>
+  <si>
+    <t>0.9735454545454542</t>
+  </si>
+  <si>
+    <t>0.9204157894736835</t>
+  </si>
+  <si>
+    <t>0.930684210526316</t>
+  </si>
+  <si>
+    <t>0.9027000000000003</t>
+  </si>
+  <si>
+    <t>0.9013904761904763</t>
+  </si>
+  <si>
+    <t>0.9004904761904761</t>
+  </si>
+  <si>
+    <t>0.8967714285714282</t>
+  </si>
+  <si>
+    <t>0.8983238095238093</t>
+  </si>
+  <si>
+    <t>0.897209523809524</t>
+  </si>
+  <si>
+    <t>0.8971523809523817</t>
+  </si>
+  <si>
+    <t>0.8911368421052633</t>
+  </si>
+  <si>
+    <t>0.8897368421052628</t>
+  </si>
+  <si>
+    <t>0.8851111111111114</t>
+  </si>
+  <si>
+    <t>0.9893169230769229</t>
+  </si>
+  <si>
+    <t>0.9807076923076925</t>
+  </si>
+  <si>
+    <t>0.9716184615384614</t>
+  </si>
+  <si>
+    <t>0.9631815384615383</t>
+  </si>
+  <si>
+    <t>0.9543138461538461</t>
+  </si>
+  <si>
+    <t>0.9672933333333333</t>
+  </si>
+  <si>
+    <t>0.9621799999999999</t>
+  </si>
+  <si>
+    <t>0.9551333333333331</t>
+  </si>
+  <si>
+    <t>0.9759855072463776</t>
+  </si>
+  <si>
+    <t>0.9534902711323762</t>
+  </si>
+  <si>
+    <t>0.9148854864433811</t>
+  </si>
+  <si>
+    <t>0.8747855396065912</t>
+  </si>
+  <si>
+    <t>0.84937866234213</t>
+  </si>
+  <si>
+    <t>0.8287056759545921</t>
+  </si>
+  <si>
+    <t>0.9056278388278388</t>
+  </si>
+  <si>
+    <t>0.9192084582084588</t>
+  </si>
+  <si>
+    <t>0.9050725940725942</t>
+  </si>
+  <si>
+    <t>0.894662004662004</t>
+  </si>
+  <si>
+    <t>0.91901351981352</t>
+  </si>
+  <si>
+    <t>0.9536300000000002</t>
+  </si>
+  <si>
+    <t>0.8898260869565217</t>
+  </si>
+  <si>
+    <t>0.8863320158102773</t>
+  </si>
+  <si>
+    <t>0.831707509881423</t>
+  </si>
+  <si>
+    <t>0.8282529644268778</t>
+  </si>
+  <si>
+    <t>0.8247193675889328</t>
+  </si>
+  <si>
+    <t>0.820897233201581</t>
+  </si>
+  <si>
+    <t>0.9355670995670994</t>
+  </si>
+  <si>
+    <t>0.9319610389610381</t>
+  </si>
+  <si>
+    <t>0.9286363636363643</t>
+  </si>
+  <si>
+    <t>0.9346363636363638</t>
+  </si>
+  <si>
+    <t>0.9420869565217389</t>
+  </si>
+  <si>
+    <t>0.9319999999999998</t>
+  </si>
+  <si>
+    <t>0.9517599999999989</t>
+  </si>
+  <si>
+    <t>0.995851851851852</t>
+  </si>
+  <si>
+    <t>0.9926666666666671</t>
+  </si>
+  <si>
+    <t>0.9894074074074074</t>
+  </si>
+  <si>
+    <t>0.9862222222222224</t>
+  </si>
+  <si>
+    <t>0.9831111111111117</t>
+  </si>
+  <si>
+    <t>0.9798518518518515</t>
+  </si>
+  <si>
+    <t>0.9763703703703707</t>
+  </si>
+  <si>
+    <t>0.97237037037037</t>
+  </si>
+  <si>
+    <t>0.9688148148148145</t>
+  </si>
+  <si>
+    <t>0.9657777777777783</t>
   </si>
 </sst>
 </file>
@@ -525,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1150,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1775,7 +1989,817 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2396,11 +3420,411 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -2984,4 +4408,629 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>